--- a/notebooks/test_output/high_correlations_20hz.xlsx
+++ b/notebooks/test_output/high_correlations_20hz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.955657512524012</v>
+        <v>0.9663119164898433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.955657512524012</v>
+        <v>0.9663119164898433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9464534980331487</v>
+        <v>-0.9186616499063827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9464534980331487</v>
+        <v>0.9186616499063827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -503,82 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9222550627640309</v>
+        <v>0.9021108898516528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9222550627640309</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_thd_power_frac</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9103501388676897</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9103501388676897</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_ptp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_kurt</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.907007851797534</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.907007851797534</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_ptp</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_skew</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.90568208662429</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.90568208662429</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_kurt</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>current_phase_a_env_skew</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9028021020957061</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9028021020957061</v>
+        <v>0.9021108898516528</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/test_output/high_correlations_20hz.xlsx
+++ b/notebooks/test_output/high_correlations_20hz.xlsx
@@ -467,46 +467,46 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9663119164898433</v>
+        <v>0.9748825649460153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9663119164898433</v>
+        <v>0.9748825649460153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.9186616499063827</v>
+        <v>0.9383641133340352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9186616499063827</v>
+        <v>0.9383641133340352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9021108898516528</v>
+        <v>-0.919667619243522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9021108898516528</v>
+        <v>0.919667619243522</v>
       </c>
     </row>
   </sheetData>
